--- a/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
+++ b/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/avlo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/NE/trans/AVLo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF917F2-0352-6547-A722-24697CAA4973}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0272B0C4-BDF9-C149-BA39-F03202BD0E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="117">
   <si>
     <t>AVLo Average Vehicle Loading</t>
   </si>
@@ -385,7 +386,16 @@
     <t>Vehicle Loading (tons)</t>
   </si>
   <si>
-    <t>weighted value, adjusted for number of train cars per locomotive</t>
+    <t>The units for rail in the BTS data set are unclear whether they report locomotive-miles or train-car-miles. Based on the</t>
+  </si>
+  <si>
+    <t>scale, we assume the units are train-car-miles.</t>
+  </si>
+  <si>
+    <t>Assumption - train cars per locomotive</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1269,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1292,6 +1302,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="154">
@@ -1865,10 +1876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1881,8 +1892,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20">
-        <v>44307</v>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="21">
+        <v>44631</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2113,11 +2127,21 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2135,8 +2159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2299,138 +2323,137 @@
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:3" s="11" customFormat="1">
+      <c r="A22" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B23" s="12">
         <v>2009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23">
-        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>5914</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>5914</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="6">
-        <f>B24/B23</f>
+      <c r="B26" s="6">
+        <f>B25/B24</f>
         <v>155.63157894736841</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="12" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B27" s="12">
         <v>2009</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="6">
-        <v>16805</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="6">
-        <v>2196</v>
+        <v>16805</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="6">
-        <v>11129</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="6">
-        <v>685</v>
+        <v>11129</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="6">
-        <v>90</v>
+        <v>685</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="6">
-        <v>337</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="6">
-        <f>B27/B30</f>
-        <v>24.532846715328468</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="6">
-        <f t="shared" ref="B34:B35" si="0">B28/B31</f>
-        <v>24.4</v>
+        <f>B28/B31</f>
+        <v>24.532846715328468</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="6">
+        <f t="shared" ref="B35:B36" si="0">B29/B32</f>
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B36" s="6">
         <f t="shared" si="0"/>
         <v>33.023738872403563</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16">
-      <c r="A36" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="6">
-        <f>(B25*B24+B33*B27+B34*B28+B35*B29)/SUM(B24,B27:B29)</f>
-        <v>48.656731685074099</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16">
       <c r="A37" s="10" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="B37" s="6">
-        <f>B36/10</f>
-        <v>4.8656731685074099</v>
+        <f>(B26*B25+B34*B28+B35*B29+B36*B30)/SUM(B25,B28:B30)*B22</f>
+        <v>486.56731685074101</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2655,9 +2678,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B36" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2668,9 +2688,7 @@
   </sheetPr>
   <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -3243,147 +3261,147 @@
       </c>
       <c r="B5" s="9">
         <f>'BTS NTS Modal Profile Data'!B37</f>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" si="1"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="F5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="M5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="N5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="O5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="P5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="Q5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="R5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="S5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="T5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="U5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="V5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="W5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="X5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="Y5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="Z5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="AA5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="AB5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="AC5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="AD5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="AE5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="AF5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="AG5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="AH5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="AI5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="AJ5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="AK5" s="7">
         <f t="shared" si="0"/>
-        <v>4.8656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
     </row>
     <row r="6" spans="1:37">

--- a/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
+++ b/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/NE/trans/AVLo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/aaggarwal/library/containers/com.microsoft.excel/data/state-eps-data-repository/ne/trans/avlo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0272B0C4-BDF9-C149-BA39-F03202BD0E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7A1227-8A24-2546-BF34-E0C9DA6BE781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8140" yWindow="1160" windowWidth="19740" windowHeight="15160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1269,7 +1269,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1287,14 +1287,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1302,7 +1299,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="154">
@@ -1878,13 +1874,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="85.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1895,8 +1891,8 @@
       <c r="B1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="21">
-        <v>44631</v>
+      <c r="C1" s="17">
+        <v>44834</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1993,40 +1989,40 @@
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="14"/>
+      <c r="B29" s="13"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="15" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2165,7 +2161,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="1" max="1" width="73.5" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="102.33203125" customWidth="1"/>
   </cols>
@@ -2323,19 +2319,19 @@
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:3" s="11" customFormat="1">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>2009</v>
       </c>
     </row>
@@ -2365,10 +2361,10 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>2009</v>
       </c>
     </row>
@@ -2468,7 +2464,7 @@
       <c r="A40" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="6">
         <v>2967</v>
       </c>
     </row>
@@ -2476,7 +2472,7 @@
       <c r="A41" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="6">
         <v>100</v>
       </c>
     </row>
@@ -2484,7 +2480,7 @@
       <c r="A42" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="6">
         <v>27876</v>
       </c>
       <c r="C42" t="s">
@@ -2495,7 +2491,7 @@
       <c r="A43" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="6">
         <v>4151</v>
       </c>
       <c r="C43" t="s">
@@ -2503,7 +2499,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="B44" s="15"/>
+      <c r="B44" s="6"/>
       <c r="C44" t="s">
         <v>104</v>
       </c>
@@ -2512,7 +2508,7 @@
       <c r="A45" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="6">
         <v>6614973</v>
       </c>
     </row>
@@ -2520,7 +2516,7 @@
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="6">
         <v>5727512</v>
       </c>
     </row>
@@ -2528,7 +2524,7 @@
       <c r="A47" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="15">
+      <c r="B47" s="6">
         <v>44777151</v>
       </c>
     </row>
@@ -2536,18 +2532,18 @@
       <c r="A48" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="6">
         <v>12172542</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="B49" s="15"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="6">
         <f>B45/B40</f>
         <v>2229.5156723963601</v>
       </c>
@@ -2556,7 +2552,7 @@
       <c r="A51" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="6">
         <f>B46/B41</f>
         <v>57275.12</v>
       </c>
@@ -2565,7 +2561,7 @@
       <c r="A52" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="6">
         <f t="shared" ref="B52:B53" si="1">B47/B42</f>
         <v>1606.2975678002583</v>
       </c>
@@ -2574,19 +2570,19 @@
       <c r="A53" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="6">
         <f t="shared" si="1"/>
         <v>2932.4360395085523</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="B54" s="15"/>
+      <c r="B54" s="6"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="6">
         <f>SUMPRODUCT(B40:B43,B50:B53)/SUM(B40:B43)</f>
         <v>1974.4736422180429</v>
       </c>
@@ -2598,7 +2594,7 @@
       <c r="A57" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="12">
         <v>2007</v>
       </c>
     </row>
@@ -2611,10 +2607,10 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="11" t="s">
+      <c r="A59" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59">
         <v>17287</v>
       </c>
     </row>
@@ -2642,7 +2638,7 @@
       <c r="A63" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63">
         <v>1670994</v>
       </c>
     </row>
@@ -2662,7 +2658,7 @@
         <f>B64/B63</f>
         <v>1.579999688807979</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2688,7 +2684,9 @@
   </sheetPr>
   <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -2697,7 +2695,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="48">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="5">
@@ -2813,146 +2811,146 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="9">
         <v>1.67</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="9">
         <f>$B2</f>
         <v>1.67</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="9">
         <f t="shared" ref="D2:AK7" si="0">$B2</f>
         <v>1.67</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Y2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="Z2" s="7">
+      <c r="Z2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="AA2" s="7">
+      <c r="AA2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="AB2" s="7">
+      <c r="AB2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="AC2" s="7">
+      <c r="AC2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="AD2" s="7">
+      <c r="AD2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="AE2" s="7">
+      <c r="AE2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="AF2" s="7">
+      <c r="AF2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="AG2" s="7">
+      <c r="AG2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="AH2" s="7">
+      <c r="AH2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="AI2" s="7">
+      <c r="AI2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="AJ2" s="7">
+      <c r="AJ2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="AK2" s="7">
+      <c r="AK2" s="9">
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
@@ -2965,143 +2963,143 @@
         <f>'BTS NTS Modal Profile Data'!B14</f>
         <v>21.196137258578663</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <f t="shared" ref="C3:R7" si="1">$B3</f>
         <v>21.196137258578663</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="9">
         <f t="shared" si="1"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="9">
         <f t="shared" si="1"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="9">
         <f t="shared" si="1"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="9">
         <f t="shared" si="1"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="9">
         <f t="shared" si="1"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="9">
         <f t="shared" si="1"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="9">
         <f t="shared" si="1"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="9">
         <f t="shared" si="1"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="9">
         <f t="shared" si="1"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="9">
         <f t="shared" si="1"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="9">
         <f t="shared" si="1"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="9">
         <f t="shared" si="1"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="9">
         <f t="shared" si="1"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="9">
         <f t="shared" si="1"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="9">
         <f t="shared" si="1"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="9">
         <f t="shared" si="0"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="9">
         <f t="shared" si="0"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="9">
         <f t="shared" si="0"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="9">
         <f t="shared" si="0"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="9">
         <f t="shared" si="0"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="9">
         <f t="shared" si="0"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="9">
         <f t="shared" si="0"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="Z3" s="7">
+      <c r="Z3" s="9">
         <f t="shared" si="0"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="AA3" s="7">
+      <c r="AA3" s="9">
         <f t="shared" si="0"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AB3" s="9">
         <f t="shared" si="0"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AC3" s="9">
         <f t="shared" si="0"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="AD3" s="7">
+      <c r="AD3" s="9">
         <f t="shared" si="0"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="AE3" s="7">
+      <c r="AE3" s="9">
         <f t="shared" si="0"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="AF3" s="7">
+      <c r="AF3" s="9">
         <f t="shared" si="0"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="AG3" s="7">
+      <c r="AG3" s="9">
         <f t="shared" si="0"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="AH3" s="7">
+      <c r="AH3" s="9">
         <f t="shared" si="0"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="AI3" s="7">
+      <c r="AI3" s="9">
         <f t="shared" si="0"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="AJ3" s="7">
+      <c r="AJ3" s="9">
         <f t="shared" si="0"/>
         <v>21.196137258578663</v>
       </c>
-      <c r="AK3" s="7">
+      <c r="AK3" s="9">
         <f t="shared" si="0"/>
         <v>21.196137258578663</v>
       </c>
@@ -3114,143 +3112,143 @@
         <f>'BTS NTS Modal Profile Data'!B8</f>
         <v>111.39416306433705</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="9">
         <f t="shared" si="1"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="Z4" s="7">
+      <c r="Z4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AB4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AC4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AD4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AE4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="AF4" s="7">
+      <c r="AF4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="AG4" s="7">
+      <c r="AG4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="AH4" s="7">
+      <c r="AH4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="AI4" s="7">
+      <c r="AI4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="AJ4" s="7">
+      <c r="AJ4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-      <c r="AK4" s="7">
+      <c r="AK4" s="9">
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
@@ -3260,294 +3258,294 @@
         <v>15</v>
       </c>
       <c r="B5" s="9">
-        <f>'BTS NTS Modal Profile Data'!B37</f>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="C5" s="7">
-        <f t="shared" si="1"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="E5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="J5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="K5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="L5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="M5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="N5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="O5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="P5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="Q5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="R5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="S5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="T5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="U5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="V5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="W5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="X5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="Y5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="Z5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="AA5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="AB5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="AC5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="AD5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="AE5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="AF5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="AG5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="AH5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="AI5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="AJ5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
-      </c>
-      <c r="AK5" s="7">
-        <f t="shared" si="0"/>
-        <v>486.56731685074101</v>
+        <f>'BTS NTS Modal Profile Data'!B37/10</f>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="1"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="N5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="O5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="P5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="Q5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="R5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="S5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="T5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="U5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="V5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="X5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="Y5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="Z5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="AA5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="AB5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="AC5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="AD5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="AE5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="AF5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="AG5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="AH5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="AI5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="AJ5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="AK5" s="9">
+        <f t="shared" si="0"/>
+        <v>48.656731685074099</v>
       </c>
     </row>
     <row r="6" spans="1:37">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AA6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AC6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AF6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AG6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AH6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AI6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AK6" s="7">
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AF6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AH6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AI6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AK6" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3556,147 +3554,147 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <f>'BTS NTS Modal Profile Data'!B60</f>
         <v>1.2700756740871355</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <f t="shared" si="1"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="Z7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AB7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="AC7" s="7">
+      <c r="AC7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="AD7" s="7">
+      <c r="AD7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="AE7" s="7">
+      <c r="AE7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="AF7" s="7">
+      <c r="AF7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="AG7" s="7">
+      <c r="AG7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="AH7" s="7">
+      <c r="AH7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="AI7" s="7">
+      <c r="AI7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="AJ7" s="7">
+      <c r="AJ7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
-      <c r="AK7" s="7">
+      <c r="AK7" s="9">
         <f t="shared" si="0"/>
         <v>1.2700756740871355</v>
       </c>
@@ -3721,7 +3719,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="1" customFormat="1" ht="32">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>112</v>
       </c>
       <c r="B1" s="1">
@@ -3834,7 +3832,7 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="14">
         <v>1</v>
       </c>
       <c r="C2">

--- a/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
+++ b/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/aaggarwal/library/containers/com.microsoft.excel/data/state-eps-data-repository/ne/trans/avlo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7A1227-8A24-2546-BF34-E0C9DA6BE781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F02FAF7-F45B-BF4E-96A0-1347337BB70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8140" yWindow="1160" windowWidth="19740" windowHeight="15160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8140" yWindow="1060" windowWidth="19740" windowHeight="15160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>

--- a/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
+++ b/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\state-eps-data-repository\NE\trans\AVLo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\United States\us-eps\InputData\trans\AVLo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DEDFB31-FC6F-43C1-AB7A-293877344EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AC2DF5-4868-4C3C-8298-C8F8D01CCD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="502">
   <si>
     <t>AVLo Average Vehicle Loading</t>
   </si>
@@ -2538,7 +2538,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2684,7 +2684,6 @@
     <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="154" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="157">
     <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3177,7 +3176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
@@ -3189,18 +3188,12 @@
     <col min="2" max="2" width="85.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C1" s="81">
-        <v>45313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3208,57 +3201,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="B5" s="2">
         <v>2009</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="B12" s="2">
         <v>2008</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="B15" t="s">
         <v>11</v>
       </c>
